--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易计划2022-10-24.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易计划2022-10-24.xlsx
@@ -70,7 +70,7 @@
     <t>富佳股份</t>
   </si>
   <si>
-    <t>最近三个季度到最近两年基本面均不是很好，但技术面表现较好，但形态完成于下三分之一，可以予以试探性建仓，建仓后需密切关注最近季度财报情况。最近财报没有增长应立即平仓。</t>
+    <t>最近三个季度到最近两年基本面均不是很好，但技术面表现较好，可形态完成于下三分之一，可以予以试探性建仓，建仓后需密切关注最近季度财报情况。最近财报没有增长应立即平仓。</t>
   </si>
 </sst>
 </file>
@@ -78,11 +78,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -106,6 +106,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -113,11 +121,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,30 +143,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,22 +190,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -190,54 +197,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,13 +259,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,157 +409,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,7 +494,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,7 +529,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,21 +564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -567,168 +578,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,6 +745,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1097,13 +1100,13 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9.07142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.32142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.8125" style="1" customWidth="1"/>
     <col min="3" max="4" width="8" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.1428571428571" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.7142857142857" style="1" customWidth="1"/>
@@ -1135,13 +1138,13 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1149,35 +1152,35 @@
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>20.8</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>19.23</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <f>41000*0.02</f>
         <v>820</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <f>E2/(C2-D2)</f>
         <v>522.292993630573</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <f>(C2-D2)*100</f>
         <v>157</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="10">
         <f>(C2-D2)/C2</f>
         <v>0.0754807692307692</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="7">
         <v>200</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1185,35 +1188,35 @@
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>55.35</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>50.66</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <f>41000*0.02</f>
         <v>820</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <f>E3/(C3-D3)</f>
         <v>174.840085287846</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <f>(C3-D3)*100</f>
         <v>469</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="10">
         <f>(C3-D3)/C3</f>
         <v>0.0847335140018068</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
         <v>100</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1224,32 +1227,32 @@
       <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>22.39</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>20.62</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <f>41000*0.02</f>
         <v>820</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="9">
         <f>E4/(C4-D4)</f>
         <v>463.276836158192</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <f>(C4-D4)*100</f>
         <v>177</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="10">
         <f>(C4-D4)/C4</f>
         <v>0.0790531487271103</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <v>100</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1263,6 +1266,10 @@
   <conditionalFormatting sqref="B4">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="亨通光电"/>
+    <hyperlink ref="B3" r:id="rId2" display="科士达"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易计划2022-10-24.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易计划2022-10-24.xlsx
@@ -7,14 +7,17 @@
     <workbookView windowWidth="27240" windowHeight="13420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="买入计划与执行" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+  <si>
+    <t>计划代码</t>
+  </si>
   <si>
     <t>股票代码</t>
   </si>
@@ -22,6 +25,9 @@
     <t>股票简称</t>
   </si>
   <si>
+    <t>计划类别</t>
+  </si>
+  <si>
     <t>入场价</t>
   </si>
   <si>
@@ -40,16 +46,28 @@
     <t>承受风险百分比</t>
   </si>
   <si>
-    <t>初次购买股数</t>
-  </si>
-  <si>
-    <t>预期(具体预期能不能实现需要根据市场走势)</t>
+    <t>购买股数</t>
+  </si>
+  <si>
+    <t>买入原因和注意事项(具体预期能不能实现需要根据市场走势)</t>
+  </si>
+  <si>
+    <t>计划日期</t>
+  </si>
+  <si>
+    <t>实际入场价</t>
+  </si>
+  <si>
+    <t>执行日期</t>
   </si>
   <si>
     <t>600487.SH</t>
   </si>
   <si>
     <t>亨通光电</t>
+  </si>
+  <si>
+    <t>建仓</t>
   </si>
   <si>
     <t>最近三个季度基本面有所波动，但近两年基本面较好，技术面较好，可以予以建仓。但建仓后，需密切关注最近季度的财报情况。最近财报没有增长应立即平仓。</t>
@@ -77,14 +95,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,12 +134,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -128,8 +161,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,101 +268,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,37 +284,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +404,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,133 +452,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +487,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,9 +502,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -494,42 +519,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,17 +569,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,94 +608,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,88 +707,121 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1093,182 +1151,254 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="9.07142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.8125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7142857142857" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.3571428571429" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.9285714285714" style="1" customWidth="1"/>
-    <col min="10" max="10" width="223.214285714286" customWidth="1"/>
+    <col min="1" max="1" width="11.6428571428571" style="1"/>
+    <col min="2" max="2" width="9.07142857142857" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9.8125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="8" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.1428571428571" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.7142857142857" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.7142857142857" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.3571428571429" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.9285714285714" style="2" customWidth="1"/>
+    <col min="12" max="12" width="223.214285714286" customWidth="1"/>
+    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col min="14" max="14" width="12.5714285714286" style="4" customWidth="1"/>
+    <col min="15" max="15" width="10.1428571428571" customWidth="1"/>
+    <col min="16" max="16" width="11.9285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="7">
+    <row r="2" spans="1:16">
+      <c r="A2" s="5">
+        <v>20221001</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="11">
         <v>20.8</v>
       </c>
-      <c r="D2" s="7">
+      <c r="F2" s="11">
         <v>19.23</v>
       </c>
-      <c r="E2" s="7">
+      <c r="G2" s="11">
         <f>41000*0.02</f>
         <v>820</v>
       </c>
-      <c r="F2" s="9">
-        <f>E2/(C2-D2)</f>
+      <c r="H2" s="12">
+        <f>G2/(E2-F2)</f>
         <v>522.292993630573</v>
       </c>
-      <c r="G2" s="7">
-        <f>(C2-D2)*100</f>
+      <c r="I2" s="11">
+        <f>(E2-F2)*100</f>
         <v>157</v>
       </c>
-      <c r="H2" s="10">
-        <f>(C2-D2)/C2</f>
+      <c r="J2" s="14">
+        <f>(E2-F2)/E2</f>
         <v>0.0754807692307692</v>
       </c>
-      <c r="I2" s="7">
+      <c r="K2" s="11">
         <v>200</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>12</v>
+      <c r="L2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="18">
+        <v>44855</v>
+      </c>
+      <c r="N2" s="17">
+        <v>20.8</v>
+      </c>
+      <c r="O2" s="5">
+        <v>200</v>
+      </c>
+      <c r="P2" s="18">
+        <v>44858</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7">
+    <row r="3" spans="1:16">
+      <c r="A3" s="5">
+        <v>20221002</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="11">
         <v>55.35</v>
       </c>
-      <c r="D3" s="7">
+      <c r="F3" s="11">
         <v>50.66</v>
       </c>
-      <c r="E3" s="7">
+      <c r="G3" s="11">
         <f>41000*0.02</f>
         <v>820</v>
       </c>
-      <c r="F3" s="9">
-        <f>E3/(C3-D3)</f>
+      <c r="H3" s="12">
+        <f>G3/(E3-F3)</f>
         <v>174.840085287846</v>
       </c>
-      <c r="G3" s="7">
-        <f>(C3-D3)*100</f>
+      <c r="I3" s="11">
+        <f>(E3-F3)*100</f>
         <v>469</v>
       </c>
-      <c r="H3" s="10">
-        <f>(C3-D3)/C3</f>
+      <c r="J3" s="14">
+        <f>(E3-F3)/E3</f>
         <v>0.0847335140018068</v>
       </c>
-      <c r="I3" s="7">
+      <c r="K3" s="11">
         <v>100</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>15</v>
+      <c r="L3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="19">
+        <v>44855</v>
+      </c>
+      <c r="N3" s="17">
+        <v>55.39</v>
+      </c>
+      <c r="O3" s="5">
+        <v>100</v>
+      </c>
+      <c r="P3" s="18">
+        <v>44858</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4" s="5">
+        <v>20221003</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7">
+      <c r="E4" s="11">
         <v>22.39</v>
       </c>
-      <c r="D4" s="7">
+      <c r="F4" s="11">
         <v>20.62</v>
       </c>
-      <c r="E4" s="7">
+      <c r="G4" s="11">
         <f>41000*0.02</f>
         <v>820</v>
       </c>
-      <c r="F4" s="9">
-        <f>E4/(C4-D4)</f>
+      <c r="H4" s="12">
+        <f>G4/(E4-F4)</f>
         <v>463.276836158192</v>
       </c>
-      <c r="G4" s="7">
-        <f>(C4-D4)*100</f>
+      <c r="I4" s="11">
+        <f>(E4-F4)*100</f>
         <v>177</v>
       </c>
-      <c r="H4" s="10">
-        <f>(C4-D4)/C4</f>
+      <c r="J4" s="14">
+        <f>(E4-F4)/E4</f>
         <v>0.0790531487271103</v>
       </c>
-      <c r="I4" s="7">
+      <c r="K4" s="11">
         <v>100</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="L4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2">
+  <conditionalFormatting sqref="C2:D2">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:D3">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
+  <conditionalFormatting sqref="C4">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
+  <conditionalFormatting sqref="D4">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="亨通光电"/>
-    <hyperlink ref="B3" r:id="rId2" display="科士达"/>
+    <hyperlink ref="C2" r:id="rId1" display="亨通光电"/>
+    <hyperlink ref="C3" r:id="rId2" display="科士达"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
